--- a/app/scripts/conflict_table.xlsx
+++ b/app/scripts/conflict_table.xlsx
@@ -61,21 +61,1199 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:2" customHeight="0">
+    <row r="1" spans="1:19" customHeight="0">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Courses Codes</t>
+        </is>
+      </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>CD222</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:2" customHeight="0">
+          <t>GEN0801</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>GEN0802</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>GEN0806</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>GEN0807</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>GEN0809</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>GEN0810</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>MEC0811</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>GEN1801</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>CIE1803</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>POW1804</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>GEN1805</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>CIE1808</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>GEN1809</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>CIE2802</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>GEN2810</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>CIE3801</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>CIE3804</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>CIE4818</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:19" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>CD222</t>
+          <t>GEN0801</t>
         </is>
       </c>
       <c r="B2" s="0">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0">
+        <v>5</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" customHeight="0">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>GEN0802</t>
+        </is>
+      </c>
+      <c r="B3" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0">
+        <v>5</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0">
+        <v>0</v>
+      </c>
+      <c r="S3" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" customHeight="0">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>GEN0806</t>
+        </is>
+      </c>
+      <c r="B4" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0">
+        <v>5</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0">
+        <v>5</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customHeight="0">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>GEN0807</t>
+        </is>
+      </c>
+      <c r="B5" s="0">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0">
+        <v>5</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" customHeight="0">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>GEN0809</t>
+        </is>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0">
+        <v>5</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" customHeight="0">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>GEN0810</t>
+        </is>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>10</v>
+      </c>
+      <c r="H7" s="0">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0">
+        <v>0</v>
+      </c>
+      <c r="M7" s="0">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" customHeight="0">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>MEC0811</t>
+        </is>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0">
+        <v>10</v>
+      </c>
+      <c r="H8" s="0">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0">
+        <v>0</v>
+      </c>
+      <c r="S8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" customHeight="0">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>GEN1801</t>
+        </is>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0">
+        <v>10</v>
+      </c>
+      <c r="H9" s="0">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0">
+        <v>0</v>
+      </c>
+      <c r="S9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" customHeight="0">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>CIE1803</t>
+        </is>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0">
+        <v>0</v>
+      </c>
+      <c r="M10" s="0">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0">
+        <v>10</v>
+      </c>
+      <c r="P10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>10</v>
+      </c>
+      <c r="R10" s="0">
+        <v>10</v>
+      </c>
+      <c r="S10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" customHeight="0">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>POW1804</t>
+        </is>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0">
+        <v>10</v>
+      </c>
+      <c r="H11" s="0">
+        <v>10</v>
+      </c>
+      <c r="I11" s="0">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0">
+        <v>10</v>
+      </c>
+      <c r="L11" s="0">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" customHeight="0">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>GEN1805</t>
+        </is>
+      </c>
+      <c r="B12" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0">
+        <v>5</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0</v>
+      </c>
+      <c r="R12" s="0">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" customHeight="0">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>CIE1808</t>
+        </is>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0">
+        <v>10</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0">
+        <v>10</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0">
+        <v>10</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>10</v>
+      </c>
+      <c r="R13" s="0">
+        <v>10</v>
+      </c>
+      <c r="S13" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" customHeight="0">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>GEN1809</t>
+        </is>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>10</v>
+      </c>
+      <c r="L14" s="0">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0">
+        <v>10</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0</v>
+      </c>
+      <c r="R14" s="0">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" customHeight="0">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>CIE2802</t>
+        </is>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>10</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0">
+        <v>10</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0">
+        <v>10</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>10</v>
+      </c>
+      <c r="R15" s="0">
+        <v>10</v>
+      </c>
+      <c r="S15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" customHeight="0">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>GEN2810</t>
+        </is>
+      </c>
+      <c r="B16" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0">
+        <v>5</v>
+      </c>
+      <c r="D16" s="0">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0">
+        <v>5</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0">
+        <v>5</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" customHeight="0">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>CIE3801</t>
+        </is>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0">
+        <v>10</v>
+      </c>
+      <c r="K17" s="0">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0">
+        <v>10</v>
+      </c>
+      <c r="N17" s="0">
+        <v>0</v>
+      </c>
+      <c r="O17" s="0">
+        <v>10</v>
+      </c>
+      <c r="P17" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>10</v>
+      </c>
+      <c r="R17" s="0">
+        <v>10</v>
+      </c>
+      <c r="S17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" customHeight="0">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>CIE3804</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0">
+        <v>10</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0">
+        <v>10</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0">
+        <v>10</v>
+      </c>
+      <c r="P18" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>10</v>
+      </c>
+      <c r="R18" s="0">
+        <v>10</v>
+      </c>
+      <c r="S18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" customHeight="0">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>CIE4818</t>
+        </is>
+      </c>
+      <c r="B19" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0">
+        <v>5</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0">
+        <v>0</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>0</v>
+      </c>
+      <c r="R19" s="0">
+        <v>0</v>
+      </c>
+      <c r="S19" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/app/scripts/conflict_table.xlsx
+++ b/app/scripts/conflict_table.xlsx
@@ -160,16 +160,16 @@
         </is>
       </c>
       <c r="B2" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0">
         <v>5</v>
@@ -190,7 +190,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
@@ -202,7 +202,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -218,16 +218,16 @@
         </is>
       </c>
       <c r="B3" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0">
         <v>5</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -260,7 +260,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -276,16 +276,16 @@
         </is>
       </c>
       <c r="B4" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0">
         <v>5</v>
@@ -306,7 +306,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -318,7 +318,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
         </is>
       </c>
       <c r="B5" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0">
         <v>5</v>
@@ -364,7 +364,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" s="0">
         <v>0</v>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="B12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" s="0">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="0">
         <v>0</v>
